--- a/Result/checksun/食品工業.xlsx
+++ b/Result/checksun/食品工業.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>8489</v>
+        <v>13799</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>10936</v>
+        <v>11209</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>7639</v>
+        <v>10249</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>2139</v>
+        <v>4521</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-489</v>
+        <v>1673</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>1326</v>
+        <v>1829</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>3171</v>
+        <v>1797</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>762</v>
+        <v>2179</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>1284</v>
+        <v>3532</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-789</v>
+        <v>7585</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>1400</v>
+        <v>12901</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-781</v>
+        <v>4938</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>5455</v>
+        <v>17480</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-2152</v>
+        <v>3696</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-2998</v>
+        <v>6521</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-2907</v>
+        <v>2620</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>11420</v>
+        <v>8490</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>16169</v>
+        <v>6795</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>14932</v>
+        <v>1747</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-5572</v>
+        <v>-9115</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-6650</v>
+        <v>-14727</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-9405</v>
+        <v>-18885</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>2642</v>
+        <v>-6884</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-2724</v>
+        <v>-11593</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>-2678</v>
+        <v>10702</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-2575</v>
+        <v>11876</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-2091</v>
+        <v>13566</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-264</v>
+        <v>14064</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>15515</v>
+        <v>15986</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>16205</v>
+        <v>17226</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>13644</v>
+        <v>12272</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-1064</v>
+        <v>1224</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-548</v>
+        <v>4361</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>684</v>
+        <v>4504</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>1535</v>
+        <v>6623</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>1569</v>
+        <v>9970</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>-480102</v>
+        <v>-1953325</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-1486351</v>
+        <v>-1791412</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-1489368</v>
+        <v>-1840200</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-1818944</v>
+        <v>-1025652</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-1775978</v>
+        <v>-1301402</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-1097198</v>
+        <v>-334395</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>345721</v>
+        <v>1963942</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>1470917</v>
+        <v>2833075</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>746366</v>
+        <v>2602545</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>447571</v>
+        <v>1995850</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-996341</v>
+        <v>2502040</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>16437</v>
+        <v>3190810</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-3992</v>
+        <v>-1319</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-2691</v>
+        <v>-1141</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>1744</v>
+        <v>3764</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>1786</v>
+        <v>2710</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>864</v>
+        <v>2121</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>1804</v>
+        <v>1777</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>887</v>
+        <v>-678</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>686</v>
+        <v>-1889</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>216</v>
+        <v>-3215</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>37</v>
+        <v>5216</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>571</v>
+        <v>10291</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>-243</v>
+        <v>13285</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>-12724747</v>
+        <v>12482004</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>-4395146</v>
+        <v>15246052</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-2472019</v>
+        <v>21870851</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>9187272</v>
+        <v>23818145</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>21286516</v>
+        <v>22877337</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>21314684</v>
+        <v>24394940</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>16019479</v>
+        <v>14298485</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>-1645318</v>
+        <v>-379508</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>3028186</v>
+        <v>-199010</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-1388606</v>
+        <v>-5399606</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>3236139</v>
+        <v>-1415550</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>52070</v>
+        <v>-10939055</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>-11393679</v>
+        <v>129761671</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>33960119</v>
+        <v>183666303</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>33829444</v>
+        <v>216055925</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>32263211</v>
+        <v>171210401</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>86342244</v>
+        <v>180646093</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>119480895</v>
+        <v>207819767</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>108892139</v>
+        <v>161347612</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>63363940</v>
+        <v>111572055</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>62745586</v>
+        <v>80223647</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>30055051</v>
+        <v>42455131</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>30939909</v>
+        <v>27156408</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>25593286</v>
+        <v>41261606</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>-8862</v>
+        <v>-18815</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>1474</v>
+        <v>-16344</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-6377</v>
+        <v>-16234</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>-5536</v>
+        <v>-15550</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-9910</v>
+        <v>-17184</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>3793</v>
+        <v>-5893</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-4417</v>
+        <v>-8507</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>-7908</v>
+        <v>-13928</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>-13650</v>
+        <v>-18432</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>-5597</v>
+        <v>-12098</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>634</v>
+        <v>-9100</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>3964</v>
+        <v>-12020</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -18462,7 +18462,7 @@
         </is>
       </c>
       <c r="U98" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V98" t="n">
         <v>10</v>
@@ -18481,7 +18481,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>8931</v>
+        <v>28938</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18639,11 +18639,11 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="U99" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V99" t="n">
         <v>7</v>
@@ -18662,7 +18662,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>7736</v>
+        <v>18901</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         </is>
       </c>
       <c r="U100" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V100" t="n">
         <v>17</v>
@@ -18843,7 +18843,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>3499</v>
+        <v>12537</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="U101" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V101" t="n">
         <v>28</v>
@@ -19024,7 +19024,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>-3568</v>
+        <v>12019</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="U102" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V102" t="n">
         <v>52</v>
@@ -19205,7 +19205,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>6270</v>
+        <v>12250</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="U103" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V103" t="n">
         <v>16</v>
@@ -19386,7 +19386,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>11691</v>
+        <v>9362</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19544,11 +19544,11 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-4.13</t>
         </is>
       </c>
       <c r="U104" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V104" t="n">
         <v>11</v>
@@ -19567,7 +19567,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>23575</v>
+        <v>11297</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19725,11 +19725,11 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>-4.76</t>
+          <t>-4.77</t>
         </is>
       </c>
       <c r="U105" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V105" t="n">
         <v>-13</v>
@@ -19748,7 +19748,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>4895</v>
+        <v>-3366</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         </is>
       </c>
       <c r="U106" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V106" t="n">
         <v>-17</v>
@@ -19929,7 +19929,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>-2653</v>
+        <v>-5645</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         </is>
       </c>
       <c r="U107" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V107" t="n">
         <v>-36</v>
@@ -20110,7 +20110,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-7988</v>
+        <v>-14392</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         </is>
       </c>
       <c r="U108" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V108" t="n">
         <v>-18</v>
@@ -20291,7 +20291,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>1085</v>
+        <v>-3475</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         </is>
       </c>
       <c r="U109" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="V109" t="n">
         <v>-11</v>
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>324</v>
+        <v>-10874</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>-4770723</v>
+        <v>2493618</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>7218170</v>
+        <v>4392428</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>6089262</v>
+        <v>-1542442</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>10054915</v>
+        <v>3411745</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-2284454</v>
+        <v>-2056689</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>-6607097</v>
+        <v>-6907698</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>-2790574</v>
+        <v>-11715551</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>-541288</v>
+        <v>-20542141</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>-1024607</v>
+        <v>-15117818</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>-3852596</v>
+        <v>-23499005</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>769053</v>
+        <v>-16634415</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>724006</v>
+        <v>-9280716</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22749,11 +22749,11 @@
         <v>0.92</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N122" t="n">
@@ -22780,31 +22780,31 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U122" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V122" t="n">
         <v>25</v>
@@ -22823,7 +22823,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>243998</v>
+        <v>1510302</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="H123" t="n">
         <v>21.8</v>
@@ -22964,26 +22964,26 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U123" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V123" t="n">
         <v>11</v>
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>190013</v>
+        <v>1495221</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="H124" t="n">
         <v>21.75</v>
@@ -23143,26 +23143,26 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U124" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V124" t="n">
         <v>41</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>-24077</v>
+        <v>1496133</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="H125" t="n">
         <v>21.6</v>
@@ -23322,26 +23322,26 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U125" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V125" t="n">
         <v>73</v>
@@ -23360,7 +23360,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>75096</v>
+        <v>1181146</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H126" t="n">
         <v>21.95</v>
@@ -23501,35 +23501,35 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U126" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V126" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W126" t="n">
         <v>30</v>
       </c>
       <c r="X126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr"/>
@@ -23539,7 +23539,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>684333</v>
+        <v>1766923</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H127" t="n">
         <v>22</v>
@@ -23675,40 +23675,40 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="U127" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V127" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="W127" t="n">
         <v>27</v>
       </c>
       <c r="X127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr"/>
@@ -23718,7 +23718,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>1261448</v>
+        <v>1781144</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="H128" t="n">
         <v>21.5</v>
@@ -23854,40 +23854,40 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U128" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V128" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="W128" t="n">
         <v>16</v>
       </c>
       <c r="X128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr"/>
@@ -23897,7 +23897,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>745978</v>
+        <v>1528219</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="H129" t="n">
         <v>21.3</v>
@@ -24033,34 +24033,34 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U129" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V129" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="W129" t="n">
         <v>-6</v>
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>175645</v>
+        <v>856415</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="H130" t="n">
         <v>21.05</v>
@@ -24212,34 +24212,34 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U130" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V130" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="W130" t="n">
         <v>3</v>
@@ -24255,7 +24255,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>-186468</v>
+        <v>200789</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24358,11 +24358,11 @@
         <v>1.13</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>20.85</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>100</v>
+        <v>4.36</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="N131" t="n">
@@ -24389,31 +24389,31 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="U131" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V131" t="n">
         <v>46</v>
@@ -24432,7 +24432,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>-85158</v>
+        <v>-401566</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         </is>
       </c>
       <c r="U132" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V132" t="n">
         <v>15</v>
@@ -24611,7 +24611,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>461715</v>
+        <v>39668</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="U133" t="n">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V133" t="n">
         <v>37</v>
@@ -24790,7 +24790,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>260934</v>
+        <v>-566113</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -24926,34 +24926,34 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U134" t="n">
         <v>40</v>
       </c>
       <c r="V134" t="n">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="W134" t="n">
         <v>23</v>
@@ -24969,7 +24969,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>-2008242</v>
+        <v>-3810067</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25107,34 +25107,34 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U135" t="n">
         <v>40</v>
       </c>
       <c r="V135" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="W135" t="n">
         <v>55</v>
@@ -25150,7 +25150,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>-1491165</v>
+        <v>-3488176</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25288,34 +25288,34 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
           <t>0.51</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>0.60</t>
         </is>
       </c>
       <c r="U136" t="n">
         <v>40</v>
       </c>
       <c r="V136" t="n">
-        <v>-1</v>
+        <v>-17</v>
       </c>
       <c r="W136" t="n">
         <v>72</v>
@@ -25331,7 +25331,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>-4057600</v>
+        <v>-2855111</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25436,11 +25436,11 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="N137" t="n">
@@ -25467,27 +25467,27 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U137" t="n">
@@ -25510,7 +25510,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>-1774203</v>
+        <v>-3610415</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25653,22 +25653,22 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="U138" t="n">
@@ -25691,7 +25691,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>-2571191</v>
+        <v>-3067736</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25834,22 +25834,22 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="U139" t="n">
@@ -25872,7 +25872,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>419895</v>
+        <v>108562</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -26015,22 +26015,22 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="U140" t="n">
@@ -26053,7 +26053,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>-1528000</v>
+        <v>-1108131</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26191,27 +26191,27 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U141" t="n">
@@ -26234,7 +26234,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>-926198</v>
+        <v>-2164708</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26372,27 +26372,27 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="U142" t="n">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>-717784</v>
+        <v>-2407804</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26553,27 +26553,27 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="U143" t="n">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-308212</v>
+        <v>-2806307</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26734,27 +26734,27 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="U144" t="n">
@@ -26777,7 +26777,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>429653</v>
+        <v>-1766049</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -26882,11 +26882,11 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="N145" t="n">
@@ -26913,27 +26913,27 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="U145" t="n">
@@ -26956,7 +26956,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>406451</v>
+        <v>-2842510</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>11553006</v>
+        <v>67158938</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>28897277</v>
+        <v>79838602</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>12054867</v>
+        <v>64980205</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-14835314</v>
+        <v>48491049</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>40089666</v>
+        <v>43630998</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>61407036</v>
+        <v>47235929</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>70441246</v>
+        <v>64603384</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>10851659</v>
+        <v>-427364</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>-8481698</v>
+        <v>-18154754</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>-7114883</v>
+        <v>-15741185</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>-7310327</v>
+        <v>-12424987</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>-5689409</v>
+        <v>-12889417</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>-1248422</v>
+        <v>-4055541</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>-522586</v>
+        <v>-2513474</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>-2423715</v>
+        <v>-3000482</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>455561</v>
+        <v>-1853359</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>-1596190</v>
+        <v>-792853</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>-905014</v>
+        <v>-414464</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>-3262680</v>
+        <v>-3137568</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>-394698</v>
+        <v>-751421</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>328247</v>
+        <v>-1375179</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>953760</v>
+        <v>-2496259</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>1198035</v>
+        <v>-1836657</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>162303</v>
+        <v>-4347038</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31545,7 +31545,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>-16267866</v>
+        <v>147563602</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>-6510929</v>
+        <v>157192151</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -31923,7 +31923,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>10060932</v>
+        <v>107290068</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>-56390732</v>
+        <v>143037077</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>159521638</v>
+        <v>175199404</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>132336645</v>
+        <v>108269702</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>220222200</v>
+        <v>213793657</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>4181442</v>
+        <v>10883264</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>-35107509</v>
+        <v>-16205312</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>-20794391</v>
+        <v>-25852675</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>11496324</v>
+        <v>11405985</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>11040566</v>
+        <v>3687440</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -33773,7 +33773,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>-43474218</v>
+        <v>190345168</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>-105239975</v>
+        <v>180664092</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>-179588175</v>
+        <v>165368550</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>24199759</v>
+        <v>301434878</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>204439655</v>
+        <v>369035558</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>315322909</v>
+        <v>347755967</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>209619627</v>
+        <v>222961008</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>81464412</v>
+        <v>119342460</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>29633816</v>
+        <v>68651767</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>67615492</v>
+        <v>40547618</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35583,7 +35583,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>83131491</v>
+        <v>54937729</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>2799242</v>
+        <v>-30006623</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>-142664508</v>
+        <v>194381525</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>-127417625</v>
+        <v>181246088</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>-124648955</v>
+        <v>244171687</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>-3561800</v>
+        <v>268568439</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36709,7 +36709,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>251536713</v>
+        <v>330170826</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>369724880</v>
+        <v>330374562</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>340607833</v>
+        <v>211889524</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37260,7 +37260,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>57127000</v>
+        <v>11992394</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>-904238</v>
+        <v>-90238433</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>-68477594</v>
+        <v>-191435345</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>21507113</v>
+        <v>-85158013</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>-38446080</v>
+        <v>-20818493</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-56207932</v>
+        <v>147159628</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>-29330285</v>
+        <v>210849183</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>76142030</v>
+        <v>260265629</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>-39141990</v>
+        <v>220148377</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -38929,7 +38929,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>183394624</v>
+        <v>266560697</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -39118,7 +39118,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>145028364</v>
+        <v>208250441</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>242509550</v>
+        <v>277561960</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>56784844</v>
+        <v>70892418</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39685,7 +39685,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>39095235</v>
+        <v>29713412</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>16780817</v>
+        <v>3628786</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>26381229</v>
+        <v>9299626</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>24126842</v>
+        <v>-31736724</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40417,7 +40417,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>-17106501</v>
+        <v>23392688</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40606,7 +40606,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>-14845817</v>
+        <v>31295461</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>-2997357</v>
+        <v>35486605</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -40984,7 +40984,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>-12458420</v>
+        <v>37976066</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>33563952</v>
+        <v>47245273</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>33417587</v>
+        <v>39887915</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -41551,7 +41551,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>52957609</v>
+        <v>50920224</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>12577326</v>
+        <v>10258895</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>5066375</v>
+        <v>7231220</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>-2523123</v>
+        <v>-919095</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -42291,7 +42291,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>1103995</v>
+        <v>1308145</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -42472,7 +42472,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>1403953</v>
+        <v>-3587459</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>-51067941</v>
+        <v>-70093978</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -42834,7 +42834,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>-40891270</v>
+        <v>-52277560</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -43015,7 +43015,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>-67736830</v>
+        <v>-36496124</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -43196,7 +43196,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>-171249867</v>
+        <v>-13131656</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>-33950161</v>
+        <v>3612611</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>25075841</v>
+        <v>38053825</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>152223830</v>
+        <v>159311970</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>22563871</v>
+        <v>32042357</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -44101,7 +44101,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>6164865</v>
+        <v>7283522</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -44282,7 +44282,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>5894381</v>
+        <v>1775838</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -44463,7 +44463,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>14998901</v>
+        <v>9285543</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -44644,7 +44644,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>6813119</v>
+        <v>-1370911</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -44833,7 +44833,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>-161240895</v>
+        <v>214934115</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>-155157294</v>
+        <v>278392721</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -45211,7 +45211,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>-20087616</v>
+        <v>304873922</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45400,7 +45400,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>-66744557</v>
+        <v>385975502</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -45589,7 +45589,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>394530048</v>
+        <v>459689012</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>314445029</v>
+        <v>351066443</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -45967,7 +45967,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>442919567</v>
+        <v>482403106</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -46156,7 +46156,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>39019967</v>
+        <v>89632045</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>10516509</v>
+        <v>89975629</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>9800492</v>
+        <v>59400101</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>26138997</v>
+        <v>65161673</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -46896,7 +46896,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>26104905</v>
+        <v>60271306</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>-48785873</v>
+        <v>8778314</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47274,7 +47274,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>-44540344</v>
+        <v>18108975</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47463,7 +47463,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>-10591836</v>
+        <v>50417945</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -47652,7 +47652,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>-2524374</v>
+        <v>34145081</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -47841,7 +47841,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>63846484</v>
+        <v>60963791</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -48030,7 +48030,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>81631132</v>
+        <v>61875038</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -48211,7 +48211,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>60088561</v>
+        <v>40406834</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>-1197165</v>
+        <v>-11254674</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>-20621351</v>
+        <v>-29260420</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -48754,7 +48754,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>-23419106</v>
+        <v>-33859874</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -48935,7 +48935,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>-1685528</v>
+        <v>-46655672</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>865257</v>
+        <v>-52487297</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -49305,7 +49305,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>-1050444321</v>
+        <v>-1526084402</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>-576469556</v>
+        <v>43125617</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -49683,7 +49683,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>-546998546</v>
+        <v>-278926516</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -49864,7 +49864,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>-2293984272</v>
+        <v>-2003870426</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -50045,7 +50045,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>147374788</v>
+        <v>-117506035</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>1419553253</v>
+        <v>2140937342</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>1818344191</v>
+        <v>2416268439</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>472220385</v>
+        <v>-104838372</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -50769,7 +50769,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>-1151481223</v>
+        <v>-1746553271</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -50950,7 +50950,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>-1528230345</v>
+        <v>176488536</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -51131,7 +51131,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>-737101208</v>
+        <v>-1911962830</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51312,7 +51312,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>1872865312</v>
+        <v>-2116638246</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51501,7 +51501,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>220078169</v>
+        <v>650242436</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -51690,7 +51690,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>506899963</v>
+        <v>755130040</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>736529062</v>
+        <v>850266604</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -52068,7 +52068,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>87608774</v>
+        <v>455418702</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>202868685</v>
+        <v>276630064</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52446,7 +52446,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>144972891</v>
+        <v>161698689</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -52635,7 +52635,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>342555493</v>
+        <v>369826301</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -52824,7 +52824,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>45361392</v>
+        <v>55550464</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -53013,7 +53013,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>-31235349</v>
+        <v>23425863</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -53202,7 +53202,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>25254435</v>
+        <v>26754014</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53383,7 +53383,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>28399987</v>
+        <v>25676392</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53564,7 +53564,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>47961147</v>
+        <v>119499284</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -53753,7 +53753,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>720941</v>
+        <v>2188008</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -53934,7 +53934,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>-527171</v>
+        <v>183004</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -54115,7 +54115,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>262216</v>
+        <v>613876</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -54296,7 +54296,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>1205606</v>
+        <v>1052507</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>1020478</v>
+        <v>971276</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -54658,7 +54658,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>583164</v>
+        <v>650812</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -54839,7 +54839,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>261461</v>
+        <v>43878</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -55020,7 +55020,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>-310303</v>
+        <v>199977</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -55201,7 +55201,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>-231504</v>
+        <v>467563</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55382,7 +55382,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>-414560</v>
+        <v>225876</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55563,7 +55563,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>261101</v>
+        <v>577782</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -55744,7 +55744,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>299152</v>
+        <v>730509</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>-393355990</v>
+        <v>622980752</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -56122,7 +56122,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>-220016955</v>
+        <v>1126647312</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -56311,7 +56311,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>409614862</v>
+        <v>1257780246</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -56500,7 +56500,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>-332318452</v>
+        <v>1270567484</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -56689,7 +56689,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>1233215797</v>
+        <v>1604807042</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -56878,7 +56878,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>1048739253</v>
+        <v>1153978356</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -57067,7 +57067,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>1348655194</v>
+        <v>1783379480</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -57256,7 +57256,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>113448470</v>
+        <v>353238804</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -57445,7 +57445,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>-200573869</v>
+        <v>321213748</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>254230742</v>
+        <v>444970704</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -57815,7 +57815,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>258142775</v>
+        <v>417580161</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -57996,7 +57996,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>305812972</v>
+        <v>427081091</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>
@@ -58144,7 +58144,7 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
@@ -58185,7 +58185,7 @@
         </is>
       </c>
       <c r="AB314" t="n">
-        <v>304346</v>
+        <v>1928178</v>
       </c>
       <c r="AC314" t="inlineStr">
         <is>
@@ -58343,7 +58343,7 @@
       </c>
       <c r="T315" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="U315" t="n">
@@ -58374,7 +58374,7 @@
         </is>
       </c>
       <c r="AB315" t="n">
-        <v>278798</v>
+        <v>2717094</v>
       </c>
       <c r="AC315" t="inlineStr">
         <is>
@@ -58563,7 +58563,7 @@
         </is>
       </c>
       <c r="AB316" t="n">
-        <v>-181785</v>
+        <v>1042810</v>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
@@ -58711,7 +58711,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S317" t="inlineStr">
@@ -58752,7 +58752,7 @@
         </is>
       </c>
       <c r="AB317" t="n">
-        <v>-8366684</v>
+        <v>-2016119</v>
       </c>
       <c r="AC317" t="inlineStr">
         <is>
@@ -58900,7 +58900,7 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="AB318" t="n">
-        <v>1701350</v>
+        <v>141554</v>
       </c>
       <c r="AC318" t="inlineStr">
         <is>
@@ -59089,7 +59089,7 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="S319" t="inlineStr">
@@ -59130,7 +59130,7 @@
         </is>
       </c>
       <c r="AB319" t="n">
-        <v>5755028</v>
+        <v>1268852</v>
       </c>
       <c r="AC319" t="inlineStr">
         <is>
@@ -59278,7 +59278,7 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="S320" t="inlineStr">
@@ -59319,7 +59319,7 @@
         </is>
       </c>
       <c r="AB320" t="n">
-        <v>9990516</v>
+        <v>5383850</v>
       </c>
       <c r="AC320" t="inlineStr">
         <is>
@@ -59500,7 +59500,7 @@
         </is>
       </c>
       <c r="AB321" t="n">
-        <v>736946</v>
+        <v>-5066638</v>
       </c>
       <c r="AC321" t="inlineStr">
         <is>
@@ -59648,7 +59648,7 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S322" t="inlineStr">
@@ -59681,7 +59681,7 @@
         </is>
       </c>
       <c r="AB322" t="n">
-        <v>-4530433</v>
+        <v>-5867404</v>
       </c>
       <c r="AC322" t="inlineStr">
         <is>
@@ -59829,7 +59829,7 @@
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S323" t="inlineStr">
@@ -59839,7 +59839,7 @@
       </c>
       <c r="T323" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U323" t="n">
@@ -59862,7 +59862,7 @@
         </is>
       </c>
       <c r="AB323" t="n">
-        <v>-3639951</v>
+        <v>-5867943</v>
       </c>
       <c r="AC323" t="inlineStr">
         <is>
@@ -60043,7 +60043,7 @@
         </is>
       </c>
       <c r="AB324" t="n">
-        <v>-2296742</v>
+        <v>-1511714</v>
       </c>
       <c r="AC324" t="inlineStr">
         <is>
@@ -60191,7 +60191,7 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
@@ -60224,7 +60224,7 @@
         </is>
       </c>
       <c r="AB325" t="n">
-        <v>44257</v>
+        <v>-2096572</v>
       </c>
       <c r="AC325" t="inlineStr">
         <is>
@@ -60405,7 +60405,7 @@
         </is>
       </c>
       <c r="AB326" t="n">
-        <v>-10421598</v>
+        <v>43749295</v>
       </c>
       <c r="AC326" t="inlineStr">
         <is>
@@ -60586,7 +60586,7 @@
         </is>
       </c>
       <c r="AB327" t="n">
-        <v>-7962286</v>
+        <v>53026994</v>
       </c>
       <c r="AC327" t="inlineStr">
         <is>
@@ -60767,7 +60767,7 @@
         </is>
       </c>
       <c r="AB328" t="n">
-        <v>-17129165</v>
+        <v>51107565</v>
       </c>
       <c r="AC328" t="inlineStr">
         <is>
@@ -60948,7 +60948,7 @@
         </is>
       </c>
       <c r="AB329" t="n">
-        <v>4212621</v>
+        <v>57034684</v>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
@@ -61129,7 +61129,7 @@
         </is>
       </c>
       <c r="AB330" t="n">
-        <v>43891072</v>
+        <v>65164937</v>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
@@ -61310,7 +61310,7 @@
         </is>
       </c>
       <c r="AB331" t="n">
-        <v>58164623</v>
+        <v>63420995</v>
       </c>
       <c r="AC331" t="inlineStr">
         <is>
@@ -61491,7 +61491,7 @@
         </is>
       </c>
       <c r="AB332" t="n">
-        <v>49958272</v>
+        <v>47311369</v>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
@@ -61672,7 +61672,7 @@
         </is>
       </c>
       <c r="AB333" t="n">
-        <v>17098208</v>
+        <v>9251900</v>
       </c>
       <c r="AC333" t="inlineStr">
         <is>
@@ -61853,7 +61853,7 @@
         </is>
       </c>
       <c r="AB334" t="n">
-        <v>10072107</v>
+        <v>-4563823</v>
       </c>
       <c r="AC334" t="inlineStr">
         <is>
@@ -62034,7 +62034,7 @@
         </is>
       </c>
       <c r="AB335" t="n">
-        <v>2863791</v>
+        <v>-13659081</v>
       </c>
       <c r="AC335" t="inlineStr">
         <is>
@@ -62215,7 +62215,7 @@
         </is>
       </c>
       <c r="AB336" t="n">
-        <v>4175657</v>
+        <v>-12040725</v>
       </c>
       <c r="AC336" t="inlineStr">
         <is>
@@ -62396,7 +62396,7 @@
         </is>
       </c>
       <c r="AB337" t="n">
-        <v>-4815735</v>
+        <v>-24835545</v>
       </c>
       <c r="AC337" t="inlineStr">
         <is>

--- a/Result/checksun/食品工業.xlsx
+++ b/Result/checksun/食品工業.xlsx
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -944,13 +944,13 @@
         <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1160,20 +1160,20 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1379,13 +1379,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -1598,20 +1598,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2258,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3127,16 +3127,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3784,20 +3784,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -4003,20 +4003,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4449,20 +4449,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>-18</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4676,16 +4676,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4903,20 +4903,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5583,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5803,20 +5803,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
         <v>-1</v>
       </c>
       <c r="D25" t="n">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6026,16 +6026,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6249,20 +6249,20 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6475,17 +6475,17 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6695,16 +6695,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -7144,17 +7144,17 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -7364,20 +7364,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -8029,16 +8029,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8251,17 +8251,17 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D36" t="n">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -8467,16 +8467,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8689,17 +8689,17 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -8905,16 +8905,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -9127,13 +9127,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9346,17 +9346,17 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9565,13 +9565,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -9784,17 +9784,17 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10437,17 +10437,17 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -10654,13 +10654,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10871,13 +10871,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -11088,13 +11088,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11302,13 +11302,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>3</v>
@@ -11522,13 +11522,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11736,20 +11736,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11956,13 +11956,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -12173,17 +12173,17 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12817,20 +12817,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -13037,13 +13037,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -13251,13 +13251,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -13468,16 +13468,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B60" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13685,20 +13685,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D61" t="n">
         <v>7</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -13905,13 +13905,13 @@
         <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -14119,20 +14119,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>13</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
         <v>1</v>
       </c>
-      <c r="B63" t="n">
-        <v>24</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>24</v>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14336,16 +14336,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -14556,17 +14556,17 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -15422,13 +15422,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15641,13 +15641,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -15860,13 +15860,13 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16079,13 +16079,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -16295,16 +16295,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -16517,17 +16517,17 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D74" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16733,16 +16733,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -16955,17 +16955,17 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -17605,13 +17605,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11</v>
+      </c>
+      <c r="C79" t="n">
         <v>1</v>
-      </c>
-      <c r="B79" t="n">
-        <v>24</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-1</v>
       </c>
       <c r="D79" t="n">
         <v>-3</v>
@@ -17824,16 +17824,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B80" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D80" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -18043,16 +18043,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D81" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18262,10 +18262,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -18481,16 +18481,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -18703,13 +18703,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C84" t="n">
         <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -18922,17 +18922,17 @@
         <v>-3</v>
       </c>
       <c r="B85" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D85" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19138,16 +19138,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -19357,20 +19357,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -20010,20 +20010,20 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="B90" t="n">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="C90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -20229,20 +20229,20 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="B91" t="n">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="D91" t="n">
-        <v>-31</v>
+        <v>-21</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -20448,20 +20448,20 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="C92" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="D92" t="n">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -20667,20 +20667,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B93" t="n">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>-3</v>
+        <v>-26</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -20886,20 +20886,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B94" t="n">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -21105,16 +21105,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B95" t="n">
-        <v>353</v>
+        <v>212</v>
       </c>
       <c r="C95" t="n">
         <v>-6</v>
       </c>
       <c r="D95" t="n">
-        <v>-48</v>
+        <v>-15</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -21324,20 +21324,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="C96" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="D96" t="n">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21543,20 +21543,20 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -21762,20 +21762,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22415,16 +22415,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
         <v>-1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-4</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -22634,16 +22634,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22856,17 +22856,17 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -23072,13 +23072,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B104" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -23291,10 +23291,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -23510,20 +23510,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B106" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -23729,20 +23729,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
         <v>-2</v>
       </c>
-      <c r="B107" t="n">
-        <v>12</v>
-      </c>
-      <c r="C107" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>12</v>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23948,16 +23948,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -24170,17 +24170,17 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24823,13 +24823,13 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -25042,13 +25042,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25261,13 +25261,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -25480,17 +25480,17 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -26137,17 +26137,17 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26356,13 +26356,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -26575,17 +26575,17 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27226,17 +27226,17 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -27454,16 +27454,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
         <v>4</v>
       </c>
-      <c r="B124" t="n">
-        <v>14</v>
-      </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -27681,16 +27681,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C125" t="n">
         <v>-1</v>
       </c>
       <c r="D125" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -27908,16 +27908,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B126" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C126" t="n">
         <v>-1</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -28135,16 +28135,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B127" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -28362,16 +28362,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B128" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28592,17 +28592,17 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28816,16 +28816,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -29043,20 +29043,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29699,13 +29699,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -29920,13 +29920,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -30132,16 +30132,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B136" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -30349,20 +30349,20 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B137" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C137" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D137" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -30569,13 +30569,13 @@
         <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C138" t="n">
         <v>-1</v>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -30786,17 +30786,17 @@
         <v>2</v>
       </c>
       <c r="B139" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -31000,20 +31000,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31220,17 +31220,17 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31434,20 +31434,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -32081,20 +32081,20 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C145" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D145" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -32298,20 +32298,20 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B146" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C146" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -32515,20 +32515,20 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C147" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
         <v>23</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -32732,20 +32732,20 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B148" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -32952,17 +32952,17 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D149" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -33166,16 +33166,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B150" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33383,20 +33383,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="B151" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C151" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D151" t="n">
-        <v>54</v>
+        <v>-8</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33603,17 +33603,17 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -33817,20 +33817,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34464,16 +34464,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -34687,20 +34687,20 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D157" t="n">
-        <v>-2</v>
+        <v>-51</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -34913,17 +34913,17 @@
         <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -35133,16 +35133,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35359,13 +35359,13 @@
         <v>2</v>
       </c>
       <c r="B160" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -35579,16 +35579,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -35805,17 +35805,17 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36028,13 +36028,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -36251,17 +36251,17 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -36913,16 +36913,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C167" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -37132,16 +37132,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -37351,16 +37351,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37570,16 +37570,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
         <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>-5</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37792,10 +37792,10 @@
         <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -38008,20 +38008,20 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B172" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D172" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -38230,17 +38230,17 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38449,13 +38449,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -38665,20 +38665,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39321,13 +39321,13 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
         <v>-1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>-2</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -39537,16 +39537,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -39756,16 +39756,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -39975,16 +39975,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -40416,13 +40416,13 @@
         <v>2</v>
       </c>
       <c r="B183" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C183" t="n">
         <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -40635,17 +40635,17 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40854,13 +40854,13 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -41070,20 +41070,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41723,16 +41723,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C189" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -41954,20 +41954,20 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -42185,20 +42185,20 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B191" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -42416,16 +42416,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B192" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -42647,20 +42647,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B193" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C193" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -42878,16 +42878,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -43109,20 +43109,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B195" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C195" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -43343,17 +43343,17 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -43571,20 +43571,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -44263,17 +44263,17 @@
         <v>2</v>
       </c>
       <c r="B200" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -44479,16 +44479,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -44698,16 +44698,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44917,20 +44917,20 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D203" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -45136,20 +45136,20 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B204" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>-89</v>
+        <v>-3</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -45355,16 +45355,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C205" t="n">
         <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -45574,20 +45574,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B206" t="n">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C206" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>160</v>
+        <v>-88</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -45793,16 +45793,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -46012,20 +46012,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -46668,13 +46668,13 @@
         <v>2</v>
       </c>
       <c r="B211" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C211" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -46884,16 +46884,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B212" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -47103,16 +47103,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B213" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D213" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -47322,20 +47322,20 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>2</v>
+      </c>
+      <c r="B214" t="n">
+        <v>28</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
         <v>1</v>
       </c>
-      <c r="B214" t="n">
-        <v>51</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2</v>
-      </c>
-      <c r="D214" t="n">
-        <v>-12</v>
-      </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -47541,20 +47541,20 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B215" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C215" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>-54</v>
+        <v>-7</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -47760,16 +47760,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D216" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -47982,17 +47982,17 @@
         <v>-3</v>
       </c>
       <c r="B217" t="n">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C217" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D217" t="n">
-        <v>125</v>
+        <v>-55</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -48198,16 +48198,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -48417,20 +48417,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -49070,20 +49070,20 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="B222" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C222" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -49289,20 +49289,20 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="B223" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C223" t="n">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="D223" t="n">
-        <v>-32</v>
+        <v>-9</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -49511,17 +49511,17 @@
         <v>-10</v>
       </c>
       <c r="B224" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C224" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -49727,20 +49727,20 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="B225" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D225" t="n">
-        <v>6</v>
+        <v>-28</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -49946,20 +49946,20 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="B226" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="D226" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -50165,20 +50165,20 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -50384,20 +50384,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -51037,20 +51037,20 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C231" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -51268,16 +51268,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
+        <v>0</v>
+      </c>
+      <c r="B232" t="n">
         <v>5</v>
       </c>
-      <c r="B232" t="n">
-        <v>12</v>
-      </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -51495,16 +51495,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B233" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C233" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D233" t="n">
         <v>-2</v>
-      </c>
-      <c r="D233" t="n">
-        <v>2</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -51722,13 +51722,13 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B234" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
         <v>1</v>
@@ -51952,13 +51952,13 @@
         <v>4</v>
       </c>
       <c r="B235" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -52176,20 +52176,20 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B236" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C236" t="n">
         <v>5</v>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -52395,20 +52395,20 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
+        <v>0</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
         <v>-1</v>
       </c>
-      <c r="B237" t="n">
-        <v>8</v>
-      </c>
-      <c r="C237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D237" t="n">
-        <v>8</v>
-      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -52617,17 +52617,17 @@
         <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -52833,20 +52833,20 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -53486,16 +53486,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C242" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -53705,16 +53705,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B243" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C243" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -53924,16 +53924,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B244" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C244" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D244" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -54143,20 +54143,20 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B245" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -54365,17 +54365,17 @@
         <v>5</v>
       </c>
       <c r="B246" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -54581,16 +54581,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
+        <v>4</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+      <c r="D247" t="n">
         <v>2</v>
-      </c>
-      <c r="B247" t="n">
-        <v>14</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -54800,20 +54800,20 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C248" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -55022,17 +55022,17 @@
         <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -55238,20 +55238,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -55891,20 +55891,20 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B253" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
       </c>
       <c r="D253" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -56110,16 +56110,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B254" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D254" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -56332,17 +56332,17 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -56551,13 +56551,13 @@
         <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D256" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -56767,20 +56767,20 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B257" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D257" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -56989,13 +56989,13 @@
         <v>-1</v>
       </c>
       <c r="B258" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
       </c>
       <c r="D258" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -57208,13 +57208,13 @@
         <v>-2</v>
       </c>
       <c r="B259" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C259" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D259" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -57424,20 +57424,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -57643,20 +57643,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -58296,16 +58296,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
+        <v>0</v>
+      </c>
+      <c r="B264" t="n">
+        <v>14</v>
+      </c>
+      <c r="C264" t="n">
         <v>1</v>
       </c>
-      <c r="B264" t="n">
-        <v>32</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0</v>
-      </c>
       <c r="D264" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -58515,16 +58515,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B265" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C265" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D265" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -58734,10 +58734,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -58953,16 +58953,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
+        <v>1</v>
+      </c>
+      <c r="B267" t="n">
+        <v>29</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D267" t="n">
         <v>2</v>
-      </c>
-      <c r="B267" t="n">
-        <v>45</v>
-      </c>
-      <c r="C267" t="n">
-        <v>1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>-6</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -59172,13 +59172,13 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B268" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268" t="n">
         <v>1</v>
@@ -59391,20 +59391,20 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B269" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D269" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -59610,20 +59610,20 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B270" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C270" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D270" t="n">
-        <v>51</v>
+        <v>-5</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -59829,13 +59829,13 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -60048,20 +60048,20 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -60704,13 +60704,13 @@
         <v>0</v>
       </c>
       <c r="B275" t="n">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="C275" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D275" t="n">
-        <v>-51</v>
+        <v>-20</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -60932,16 +60932,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B276" t="n">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
       </c>
       <c r="D276" t="n">
-        <v>-44</v>
+        <v>-18</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -61163,16 +61163,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B277" t="n">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -61394,16 +61394,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" t="n">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278" t="n">
-        <v>-22</v>
+        <v>-26</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -61625,16 +61625,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>395</v>
+        <v>226</v>
       </c>
       <c r="C279" t="n">
         <v>-1</v>
       </c>
       <c r="D279" t="n">
-        <v>-44</v>
+        <v>-35</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -61856,16 +61856,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B280" t="n">
-        <v>439</v>
+        <v>261</v>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -62090,17 +62090,17 @@
         <v>1</v>
       </c>
       <c r="B281" t="n">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D281" t="n">
-        <v>401</v>
+        <v>-19</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -62310,20 +62310,20 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -62533,20 +62533,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -63198,20 +63198,20 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B286" t="n">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="C286" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D286" t="n">
-        <v>-32</v>
+        <v>-20</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -63421,20 +63421,20 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B287" t="n">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D287" t="n">
-        <v>-4</v>
+        <v>-38</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -63644,20 +63644,20 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B288" t="n">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="C288" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D288" t="n">
-        <v>-3</v>
+        <v>-28</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -63870,13 +63870,13 @@
         <v>10</v>
       </c>
       <c r="B289" t="n">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D289" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -64090,20 +64090,20 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B290" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D290" t="n">
-        <v>-48</v>
+        <v>28</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -64313,20 +64313,20 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B291" t="n">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="C291" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D291" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -64536,20 +64536,20 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B292" t="n">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D292" t="n">
-        <v>179</v>
+        <v>-82</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -64759,20 +64759,20 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -64982,20 +64982,20 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -65656,7 +65656,7 @@
         <v>-2</v>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -65869,13 +65869,13 @@
         <v>3</v>
       </c>
       <c r="B298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -66085,16 +66085,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -66304,16 +66304,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -66526,10 +66526,10 @@
         <v>0</v>
       </c>
       <c r="B301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D301" t="n">
         <v>0</v>
@@ -66742,13 +66742,13 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -66964,17 +66964,17 @@
         <v>0</v>
       </c>
       <c r="B303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
@@ -67180,16 +67180,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -67399,16 +67399,16 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -68052,20 +68052,20 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B308" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C308" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -68275,20 +68275,20 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B309" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D309" t="n">
-        <v>-2</v>
+        <v>-27</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -68498,16 +68498,16 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B310" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C310" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -68721,13 +68721,13 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B311" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C311" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
         <v>17</v>
@@ -68944,20 +68944,20 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B312" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C312" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D312" t="n">
         <v>25</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -69167,20 +69167,20 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B313" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C313" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D313" t="n">
         <v>7</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -69390,20 +69390,20 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B314" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
       </c>
       <c r="D314" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -69613,13 +69613,13 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D315" t="n">
         <v>0</v>
@@ -69839,17 +69839,17 @@
         <v>0</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -70501,20 +70501,20 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
+        <v>2</v>
+      </c>
+      <c r="B319" t="n">
+        <v>62</v>
+      </c>
+      <c r="C319" t="n">
         <v>1</v>
       </c>
-      <c r="B319" t="n">
-        <v>89</v>
-      </c>
-      <c r="C319" t="n">
-        <v>-3</v>
-      </c>
       <c r="D319" t="n">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -70732,16 +70732,16 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B320" t="n">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C320" t="n">
         <v>-1</v>
       </c>
       <c r="D320" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -70959,20 +70959,20 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B321" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
       </c>
       <c r="D321" t="n">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -71186,16 +71186,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B322" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D322" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -71413,16 +71413,16 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B323" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D323" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -71640,16 +71640,16 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B324" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D324" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -71867,16 +71867,16 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B325" t="n">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -72089,17 +72089,17 @@
         <v>0</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -72305,20 +72305,20 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
@@ -72958,16 +72958,16 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B330" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
       </c>
       <c r="D330" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -73177,16 +73177,16 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B331" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C331" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -73396,16 +73396,16 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B332" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C332" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D332" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -73615,20 +73615,20 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B333" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D333" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -73834,20 +73834,20 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B334" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D334" t="n">
-        <v>-85</v>
+        <v>7</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -74053,16 +74053,16 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B335" t="n">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -74272,20 +74272,20 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B336" t="n">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D336" t="n">
-        <v>147</v>
+        <v>-90</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -74494,17 +74494,17 @@
         <v>0</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -74710,20 +74710,20 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
